--- a/data/ENVS2018 kioloa acoustic data 2023.xlsx
+++ b/data/ENVS2018 kioloa acoustic data 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/1 Ecology work/ENVS2018 2023/analyses/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/ENVS2018-environmental-science-field-school/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="496" documentId="8_{8201D060-8FA1-4A0B-94AD-77AC7931AD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88EB080D-240C-4BD7-B77C-8D5CB595FA44}"/>
+  <xr:revisionPtr revIDLastSave="501" documentId="8_{8201D060-8FA1-4A0B-94AD-77AC7931AD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22C62EB9-9A75-4076-9E73-18529C73C37F}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-1920" windowWidth="14610" windowHeight="15585" xr2:uid="{0855291B-83FE-4C3F-9AEC-A841D89559E4}"/>
+    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{0855291B-83FE-4C3F-9AEC-A841D89559E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Acoustic data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="160">
   <si>
     <t>Group</t>
   </si>
@@ -396,9 +396,6 @@
     <t>C2</t>
   </si>
   <si>
-    <t>13/09/23</t>
-  </si>
-  <si>
     <t>P10</t>
   </si>
   <si>
@@ -412,9 +409,6 @@
   </si>
   <si>
     <t>Olive-backed Oriole</t>
-  </si>
-  <si>
-    <t>13/9/23</t>
   </si>
   <si>
     <t>G</t>
@@ -629,14 +623,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -674,7 +664,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -780,7 +770,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -922,7 +912,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -932,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0587933C-DFD8-4B0D-926D-C9791FA23C2A}">
   <dimension ref="A1:G422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="B340" sqref="B340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -952,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -972,7 +962,7 @@
         <v>45182</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -992,7 +982,7 @@
         <v>45182</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
@@ -1012,10 +1002,10 @@
         <v>45182</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
         <v>83</v>
@@ -1032,7 +1022,7 @@
         <v>45182</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -1048,11 +1038,11 @@
       <c r="A6" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>119</v>
+      <c r="B6" s="1">
+        <v>45182</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
         <v>118</v>
@@ -1072,10 +1062,10 @@
         <v>45181</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
@@ -1086,13 +1076,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1">
         <v>45182</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -1112,7 +1102,7 @@
         <v>45182</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -1126,22 +1116,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1">
         <v>45182</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1152,7 +1142,7 @@
         <v>45181</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
         <v>78</v>
@@ -1166,13 +1156,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B12" s="1">
         <v>45182</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
@@ -1192,13 +1182,13 @@
         <v>45182</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>54</v>
@@ -1212,10 +1202,10 @@
         <v>45181</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s">
         <v>131</v>
-      </c>
-      <c r="D14" t="s">
-        <v>133</v>
       </c>
       <c r="E14" t="s">
         <v>68</v>
@@ -1232,10 +1222,10 @@
         <v>45182</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
         <v>68</v>
@@ -1252,7 +1242,7 @@
         <v>45182</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
@@ -1272,7 +1262,7 @@
         <v>45182</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -1286,13 +1276,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18" s="8">
         <v>45181</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>66</v>
@@ -1306,13 +1296,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B19" s="1">
         <v>45182</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>66</v>
@@ -1332,7 +1322,7 @@
         <v>45181</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
         <v>118</v>
@@ -1352,7 +1342,7 @@
         <v>45181</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
         <v>104</v>
@@ -1372,7 +1362,7 @@
         <v>45182</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
         <v>104</v>
@@ -1392,7 +1382,7 @@
         <v>45182</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
         <v>105</v>
@@ -1412,7 +1402,7 @@
         <v>45181</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -1432,7 +1422,7 @@
         <v>45182</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
@@ -1452,7 +1442,7 @@
         <v>45181</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
@@ -1472,10 +1462,10 @@
         <v>45181</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
         <v>131</v>
-      </c>
-      <c r="D27" t="s">
-        <v>133</v>
       </c>
       <c r="E27" t="s">
         <v>69</v>
@@ -1492,7 +1482,7 @@
         <v>45181</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -1512,7 +1502,7 @@
         <v>45181</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -1532,7 +1522,7 @@
         <v>45181</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
         <v>77</v>
@@ -1552,7 +1542,7 @@
         <v>45181</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
         <v>31</v>
@@ -1572,7 +1562,7 @@
         <v>45181</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
         <v>78</v>
@@ -1592,7 +1582,7 @@
         <v>45182</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -1612,7 +1602,7 @@
         <v>45182</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
@@ -1626,13 +1616,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B35" s="1">
         <v>45182</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -1646,13 +1636,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B36" s="1">
         <v>45182</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
         <v>67</v>
@@ -1666,13 +1656,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B37" s="8">
         <v>45181</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>66</v>
@@ -1686,13 +1676,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38" s="1">
         <v>45182</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>66</v>
@@ -1712,7 +1702,7 @@
         <v>45181</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
         <v>118</v>
@@ -1732,10 +1722,10 @@
         <v>45181</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
         <v>69</v>
@@ -1752,10 +1742,10 @@
         <v>45181</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
         <v>69</v>
@@ -1772,7 +1762,7 @@
         <v>45181</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
         <v>104</v>
@@ -1792,7 +1782,7 @@
         <v>45181</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
         <v>105</v>
@@ -1812,7 +1802,7 @@
         <v>45181</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
         <v>105</v>
@@ -1832,7 +1822,7 @@
         <v>45182</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
         <v>104</v>
@@ -1852,7 +1842,7 @@
         <v>45182</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
         <v>105</v>
@@ -1866,13 +1856,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1">
         <v>45181</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -1886,13 +1876,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B48" s="1">
         <v>45181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>24</v>
@@ -1906,13 +1896,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B49" s="1">
         <v>45182</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>24</v>
@@ -1926,19 +1916,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B50" s="1">
         <v>45182</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D50" t="s">
         <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>70</v>
@@ -1952,13 +1942,13 @@
         <v>45182</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>45</v>
@@ -1972,7 +1962,7 @@
         <v>45181</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D52" t="s">
         <v>104</v>
@@ -1986,13 +1976,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B53" s="1">
         <v>45182</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>66</v>
@@ -2012,7 +2002,7 @@
         <v>45182</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>35</v>
@@ -2026,13 +2016,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B55" s="1">
         <v>45181</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s">
         <v>21</v>
@@ -2052,10 +2042,10 @@
         <v>45182</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>40</v>
@@ -2072,7 +2062,7 @@
         <v>45181</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D57" t="s">
         <v>105</v>
@@ -2086,13 +2076,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B58" s="1">
         <v>45181</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>24</v>
@@ -2101,7 +2091,7 @@
         <v>38</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -2112,16 +2102,16 @@
         <v>45182</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -2132,27 +2122,27 @@
         <v>45182</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B61" s="8">
         <v>45181</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>66</v>
@@ -2166,13 +2156,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B62" s="1">
         <v>45182</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>66</v>
@@ -2192,7 +2182,7 @@
         <v>45182</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
         <v>32</v>
@@ -2212,10 +2202,10 @@
         <v>45181</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" t="s">
         <v>131</v>
-      </c>
-      <c r="D64" t="s">
-        <v>133</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -2232,7 +2222,7 @@
         <v>45181</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -2252,10 +2242,10 @@
         <v>45182</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -2272,10 +2262,10 @@
         <v>45182</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -2292,7 +2282,7 @@
         <v>45182</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D68" t="s">
         <v>34</v>
@@ -2312,7 +2302,7 @@
         <v>45181</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D69" t="s">
         <v>77</v>
@@ -2332,7 +2322,7 @@
         <v>45181</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D70" t="s">
         <v>78</v>
@@ -2352,7 +2342,7 @@
         <v>45182</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -2372,7 +2362,7 @@
         <v>45182</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D72" t="s">
         <v>27</v>
@@ -2386,13 +2376,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B73" s="1">
         <v>45181</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D73" t="s">
         <v>67</v>
@@ -2412,7 +2402,7 @@
         <v>45181</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D74" t="s">
         <v>118</v>
@@ -2432,10 +2422,10 @@
         <v>45181</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -2452,10 +2442,10 @@
         <v>45181</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -2472,7 +2462,7 @@
         <v>45182</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D77" t="s">
         <v>104</v>
@@ -2486,13 +2476,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B78" s="1">
         <v>45181</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>24</v>
@@ -2506,13 +2496,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B79" s="1">
         <v>45182</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>24</v>
@@ -2526,13 +2516,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B80" s="1">
         <v>45181</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D80" t="s">
         <v>21</v>
@@ -2552,7 +2542,7 @@
         <v>45181</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D81" t="s">
         <v>104</v>
@@ -2572,7 +2562,7 @@
         <v>45181</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D82" t="s">
         <v>105</v>
@@ -2592,7 +2582,7 @@
         <v>45182</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D83" t="s">
         <v>104</v>
@@ -2612,7 +2602,7 @@
         <v>45182</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D84" t="s">
         <v>105</v>
@@ -2632,7 +2622,7 @@
         <v>45182</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D85" t="s">
         <v>32</v>
@@ -2652,7 +2642,7 @@
         <v>45182</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>35</v>
@@ -2672,7 +2662,7 @@
         <v>45182</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>35</v>
@@ -2692,7 +2682,7 @@
         <v>45181</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D88" t="s">
         <v>78</v>
@@ -2712,7 +2702,7 @@
         <v>45182</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D89" t="s">
         <v>31</v>
@@ -2726,13 +2716,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B90" s="8">
         <v>45181</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>66</v>
@@ -2746,13 +2736,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B91" s="1">
         <v>45182</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>66</v>
@@ -2772,10 +2762,10 @@
         <v>45181</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>46</v>
@@ -2792,10 +2782,10 @@
         <v>45181</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D93" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>46</v>
@@ -2806,13 +2796,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B94" s="1">
         <v>45181</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>24</v>
@@ -2826,13 +2816,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B95" s="1">
         <v>45182</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>24</v>
@@ -2852,7 +2842,7 @@
         <v>45182</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D96" t="s">
         <v>32</v>
@@ -2872,10 +2862,10 @@
         <v>45181</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97" t="s">
         <v>131</v>
-      </c>
-      <c r="D97" t="s">
-        <v>133</v>
       </c>
       <c r="E97" t="s">
         <v>22</v>
@@ -2892,7 +2882,7 @@
         <v>45181</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D98" t="s">
         <v>29</v>
@@ -2912,10 +2902,10 @@
         <v>45182</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E99" t="s">
         <v>22</v>
@@ -2932,7 +2922,7 @@
         <v>45182</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D100" t="s">
         <v>29</v>
@@ -2952,7 +2942,7 @@
         <v>45182</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
@@ -2972,7 +2962,7 @@
         <v>45182</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D102" t="s">
         <v>34</v>
@@ -2992,7 +2982,7 @@
         <v>45182</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D103" t="s">
         <v>77</v>
@@ -3012,7 +3002,7 @@
         <v>45182</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D104" t="s">
         <v>31</v>
@@ -3032,7 +3022,7 @@
         <v>45182</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D105" t="s">
         <v>18</v>
@@ -3046,13 +3036,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B106" s="1">
         <v>45182</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D106" t="s">
         <v>67</v>
@@ -3066,13 +3056,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B107" s="8">
         <v>45181</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>66</v>
@@ -3086,13 +3076,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B108" s="1">
         <v>45182</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>66</v>
@@ -3108,11 +3098,11 @@
       <c r="A109" t="s">
         <v>117</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>119</v>
+      <c r="B109" s="1">
+        <v>45182</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D109" t="s">
         <v>118</v>
@@ -3128,14 +3118,14 @@
       <c r="A110" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>125</v>
+      <c r="B110" s="1">
+        <v>45182</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E110" t="s">
         <v>22</v>
@@ -3152,10 +3142,10 @@
         <v>45182</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E111" t="s">
         <v>22</v>
@@ -3172,7 +3162,7 @@
         <v>45181</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D112" t="s">
         <v>104</v>
@@ -3192,7 +3182,7 @@
         <v>45182</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D113" t="s">
         <v>105</v>
@@ -3206,13 +3196,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B114" s="1">
         <v>45182</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D114" t="s">
         <v>21</v>
@@ -3232,13 +3222,13 @@
         <v>45181</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115" t="s">
         <v>131</v>
       </c>
-      <c r="D115" t="s">
-        <v>133</v>
-      </c>
       <c r="E115" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>51</v>
@@ -3252,13 +3242,13 @@
         <v>45182</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D116" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E116" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>51</v>
@@ -3272,13 +3262,13 @@
         <v>45182</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D117" t="s">
         <v>32</v>
       </c>
       <c r="E117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>51</v>
@@ -3286,19 +3276,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B118" s="1">
         <v>45182</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D118" t="s">
         <v>21</v>
       </c>
       <c r="E118" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>51</v>
@@ -3312,13 +3302,13 @@
         <v>45182</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D119" t="s">
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>51</v>
@@ -3332,13 +3322,13 @@
         <v>45182</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D120" t="s">
         <v>18</v>
       </c>
       <c r="E120" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>51</v>
@@ -3346,19 +3336,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B121" s="1">
         <v>45181</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D121" t="s">
         <v>21</v>
       </c>
       <c r="E121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>51</v>
@@ -3372,7 +3362,7 @@
         <v>45181</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D122" t="s">
         <v>31</v>
@@ -3392,7 +3382,7 @@
         <v>45182</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D123" t="s">
         <v>27</v>
@@ -3406,13 +3396,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B124" s="1">
         <v>45182</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>66</v>
@@ -3426,13 +3416,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1">
         <v>45181</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D125" t="s">
         <v>21</v>
@@ -3452,7 +3442,7 @@
         <v>45182</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D126" t="s">
         <v>104</v>
@@ -3472,7 +3462,7 @@
         <v>45182</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D127" t="s">
         <v>105</v>
@@ -3492,7 +3482,7 @@
         <v>45182</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D128" t="s">
         <v>32</v>
@@ -3512,10 +3502,10 @@
         <v>45181</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D129" t="s">
         <v>131</v>
-      </c>
-      <c r="D129" t="s">
-        <v>133</v>
       </c>
       <c r="E129" t="s">
         <v>43</v>
@@ -3532,7 +3522,7 @@
         <v>45182</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>35</v>
@@ -3552,7 +3542,7 @@
         <v>45182</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>35</v>
@@ -3572,7 +3562,7 @@
         <v>45181</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D132" t="s">
         <v>78</v>
@@ -3592,7 +3582,7 @@
         <v>45182</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D133" t="s">
         <v>77</v>
@@ -3612,7 +3602,7 @@
         <v>45182</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D134" t="s">
         <v>78</v>
@@ -3632,7 +3622,7 @@
         <v>45182</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D135" t="s">
         <v>18</v>
@@ -3646,13 +3636,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B136" s="1">
         <v>45182</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D136" t="s">
         <v>67</v>
@@ -3666,13 +3656,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B137" s="8">
         <v>45181</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>66</v>
@@ -3686,13 +3676,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B138" s="1">
         <v>45182</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>66</v>
@@ -3712,10 +3702,10 @@
         <v>45181</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D139" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E139" t="s">
         <v>43</v>
@@ -3732,7 +3722,7 @@
         <v>45181</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D140" t="s">
         <v>104</v>
@@ -3752,7 +3742,7 @@
         <v>45181</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D141" t="s">
         <v>105</v>
@@ -3772,7 +3762,7 @@
         <v>45181</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D142" t="s">
         <v>5</v>
@@ -3792,7 +3782,7 @@
         <v>45182</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D143" t="s">
         <v>5</v>
@@ -3812,7 +3802,7 @@
         <v>45182</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D144" t="s">
         <v>31</v>
@@ -3832,7 +3822,7 @@
         <v>45181</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D145" t="s">
         <v>118</v>
@@ -3852,10 +3842,10 @@
         <v>45181</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E146" t="s">
         <v>43</v>
@@ -3866,13 +3856,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B147" s="1">
         <v>45181</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>24</v>
@@ -3892,7 +3882,7 @@
         <v>45182</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D148" t="s">
         <v>34</v>
@@ -3912,7 +3902,7 @@
         <v>45182</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D149" t="s">
         <v>34</v>
@@ -3932,7 +3922,7 @@
         <v>45181</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D150" t="s">
         <v>5</v>
@@ -3952,7 +3942,7 @@
         <v>45182</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D151" t="s">
         <v>5</v>
@@ -3972,7 +3962,7 @@
         <v>45182</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D152" t="s">
         <v>18</v>
@@ -3992,7 +3982,7 @@
         <v>45182</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D153" t="s">
         <v>27</v>
@@ -4012,7 +4002,7 @@
         <v>45182</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D154" t="s">
         <v>29</v>
@@ -4026,13 +4016,13 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B155" s="1">
         <v>45182</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>66</v>
@@ -4052,7 +4042,7 @@
         <v>45181</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D156" t="s">
         <v>105</v>
@@ -4066,13 +4056,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B157" s="1">
         <v>45182</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D157" t="s">
         <v>21</v>
@@ -4092,7 +4082,7 @@
         <v>45182</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D158" t="s">
         <v>32</v>
@@ -4112,10 +4102,10 @@
         <v>45181</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D159" t="s">
         <v>131</v>
-      </c>
-      <c r="D159" t="s">
-        <v>133</v>
       </c>
       <c r="E159" t="s">
         <v>79</v>
@@ -4132,10 +4122,10 @@
         <v>45182</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D160" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E160" t="s">
         <v>79</v>
@@ -4152,7 +4142,7 @@
         <v>45181</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D161" t="s">
         <v>31</v>
@@ -4172,7 +4162,7 @@
         <v>45181</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D162" t="s">
         <v>78</v>
@@ -4192,7 +4182,7 @@
         <v>45182</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D163" t="s">
         <v>77</v>
@@ -4212,7 +4202,7 @@
         <v>45182</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D164" t="s">
         <v>18</v>
@@ -4232,7 +4222,7 @@
         <v>45182</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D165" t="s">
         <v>27</v>
@@ -4246,13 +4236,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B166" s="1">
         <v>45182</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D166" t="s">
         <v>67</v>
@@ -4272,10 +4262,10 @@
         <v>45182</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D167" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E167" t="s">
         <v>79</v>
@@ -4292,7 +4282,7 @@
         <v>45181</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D168" t="s">
         <v>118</v>
@@ -4312,10 +4302,10 @@
         <v>45181</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D169" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E169" t="s">
         <v>79</v>
@@ -4332,7 +4322,7 @@
         <v>45182</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D170" t="s">
         <v>104</v>
@@ -4346,13 +4336,13 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B171" s="1">
         <v>45182</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>24</v>
@@ -4372,7 +4362,7 @@
         <v>45182</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D172" t="s">
         <v>104</v>
@@ -4392,13 +4382,13 @@
         <v>45182</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D173" t="s">
         <v>5</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>116</v>
@@ -4412,13 +4402,13 @@
         <v>45181</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D174" t="s">
         <v>104</v>
       </c>
       <c r="E174" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>108</v>
@@ -4432,13 +4422,13 @@
         <v>45182</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D175" t="s">
         <v>104</v>
       </c>
       <c r="E175" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>108</v>
@@ -4452,13 +4442,13 @@
         <v>45182</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D176" t="s">
         <v>105</v>
       </c>
       <c r="E176" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>108</v>
@@ -4472,13 +4462,13 @@
         <v>45182</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D177" t="s">
         <v>5</v>
       </c>
       <c r="E177" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>108</v>
@@ -4492,13 +4482,13 @@
         <v>45182</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D178" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E178" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>108</v>
@@ -4506,19 +4496,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B179" s="1">
         <v>45182</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D179" t="s">
         <v>21</v>
       </c>
       <c r="E179" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>108</v>
@@ -4532,7 +4522,7 @@
         <v>45182</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D180" t="s">
         <v>18</v>
@@ -4552,7 +4542,7 @@
         <v>45182</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D181" t="s">
         <v>27</v>
@@ -4566,13 +4556,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B182" s="1">
         <v>45182</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>66</v>
@@ -4588,11 +4578,11 @@
       <c r="A183" t="s">
         <v>117</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>119</v>
+      <c r="B183" s="1">
+        <v>45182</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D183" t="s">
         <v>118</v>
@@ -4612,10 +4602,10 @@
         <v>45181</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D184" t="s">
         <v>131</v>
-      </c>
-      <c r="D184" t="s">
-        <v>133</v>
       </c>
       <c r="E184" t="s">
         <v>92</v>
@@ -4632,7 +4622,7 @@
         <v>45181</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D185" t="s">
         <v>5</v>
@@ -4652,10 +4642,10 @@
         <v>45182</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D186" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E186" t="s">
         <v>92</v>
@@ -4672,7 +4662,7 @@
         <v>45182</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D187" t="s">
         <v>29</v>
@@ -4692,7 +4682,7 @@
         <v>45182</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D188" t="s">
         <v>5</v>
@@ -4712,7 +4702,7 @@
         <v>45181</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D189" t="s">
         <v>78</v>
@@ -4732,10 +4722,10 @@
         <v>45182</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D190" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E190" t="s">
         <v>92</v>
@@ -4752,7 +4742,7 @@
         <v>45181</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D191" t="s">
         <v>105</v>
@@ -4772,7 +4762,7 @@
         <v>45182</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D192" t="s">
         <v>77</v>
@@ -4792,7 +4782,7 @@
         <v>45182</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D193" t="s">
         <v>31</v>
@@ -4806,13 +4796,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B194" s="1">
         <v>45181</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D194" t="s">
         <v>21</v>
@@ -4826,13 +4816,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B195" s="1">
         <v>45182</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D195" t="s">
         <v>21</v>
@@ -4852,7 +4842,7 @@
         <v>45181</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D196" t="s">
         <v>104</v>
@@ -4872,7 +4862,7 @@
         <v>45182</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D197" t="s">
         <v>105</v>
@@ -4892,7 +4882,7 @@
         <v>45182</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D198" t="s">
         <v>32</v>
@@ -4912,10 +4902,10 @@
         <v>45181</v>
       </c>
       <c r="C199" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D199" t="s">
         <v>131</v>
-      </c>
-      <c r="D199" t="s">
-        <v>133</v>
       </c>
       <c r="E199" t="s">
         <v>72</v>
@@ -4932,7 +4922,7 @@
         <v>45181</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D200" t="s">
         <v>29</v>
@@ -4952,7 +4942,7 @@
         <v>45181</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D201" t="s">
         <v>5</v>
@@ -4972,10 +4962,10 @@
         <v>45182</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D202" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E202" t="s">
         <v>72</v>
@@ -4992,7 +4982,7 @@
         <v>45182</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D203" t="s">
         <v>29</v>
@@ -5012,7 +5002,7 @@
         <v>45182</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D204" t="s">
         <v>5</v>
@@ -5032,7 +5022,7 @@
         <v>45181</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D205" t="s">
         <v>77</v>
@@ -5052,7 +5042,7 @@
         <v>45181</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D206" t="s">
         <v>78</v>
@@ -5072,7 +5062,7 @@
         <v>45182</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D207" t="s">
         <v>27</v>
@@ -5086,13 +5076,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B208" s="1">
         <v>45182</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D208" t="s">
         <v>67</v>
@@ -5106,13 +5096,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B209" s="8">
         <v>45181</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>66</v>
@@ -5126,13 +5116,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B210" s="1">
         <v>45182</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>66</v>
@@ -5152,7 +5142,7 @@
         <v>45181</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D211" t="s">
         <v>118</v>
@@ -5172,10 +5162,10 @@
         <v>45181</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D212" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E212" t="s">
         <v>72</v>
@@ -5192,10 +5182,10 @@
         <v>45181</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D213" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E213" t="s">
         <v>72</v>
@@ -5212,7 +5202,7 @@
         <v>45181</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D214" t="s">
         <v>105</v>
@@ -5232,7 +5222,7 @@
         <v>45182</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D215" t="s">
         <v>31</v>
@@ -5252,7 +5242,7 @@
         <v>45182</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D216" t="s">
         <v>29</v>
@@ -5272,7 +5262,7 @@
         <v>45182</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D217" t="s">
         <v>27</v>
@@ -5286,13 +5276,13 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B218" s="1">
         <v>45182</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>66</v>
@@ -5312,7 +5302,7 @@
         <v>45181</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D219" t="s">
         <v>29</v>
@@ -5332,7 +5322,7 @@
         <v>45181</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D220" t="s">
         <v>31</v>
@@ -5352,7 +5342,7 @@
         <v>45182</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D221" t="s">
         <v>27</v>
@@ -5366,19 +5356,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B222" s="1">
         <v>45181</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D222" t="s">
         <v>21</v>
       </c>
       <c r="E222" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>10</v>
@@ -5392,13 +5382,13 @@
         <v>45182</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D223" t="s">
         <v>18</v>
       </c>
       <c r="E223" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>10</v>
@@ -5412,13 +5402,13 @@
         <v>45182</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D224" t="s">
         <v>104</v>
       </c>
       <c r="E224" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>10</v>
@@ -5432,13 +5422,13 @@
         <v>45182</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D225" t="s">
         <v>105</v>
       </c>
       <c r="E225" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>10</v>
@@ -5446,19 +5436,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B226" s="1">
         <v>45181</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E226" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>10</v>
@@ -5466,19 +5456,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B227" s="1">
         <v>45182</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E227" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>10</v>
@@ -5492,7 +5482,7 @@
         <v>45181</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D228" t="s">
         <v>32</v>
@@ -5506,13 +5496,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B229" s="1">
         <v>45182</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>24</v>
@@ -5532,13 +5522,13 @@
         <v>45182</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D230" t="s">
         <v>18</v>
       </c>
       <c r="E230" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F230" s="5" t="s">
         <v>56</v>
@@ -5546,19 +5536,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B231" s="1">
         <v>45182</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D231" t="s">
         <v>21</v>
       </c>
       <c r="E231" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F231" s="5" t="s">
         <v>56</v>
@@ -5566,19 +5556,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B232" s="1">
         <v>45182</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D232" t="s">
         <v>21</v>
       </c>
       <c r="E232" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F232" s="5" t="s">
         <v>56</v>
@@ -5592,13 +5582,13 @@
         <v>45181</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D233" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E233" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F233" s="5" t="s">
         <v>56</v>
@@ -5612,13 +5602,13 @@
         <v>45181</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D234" t="s">
         <v>105</v>
       </c>
       <c r="E234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F234" s="5" t="s">
         <v>56</v>
@@ -5632,13 +5622,13 @@
         <v>45182</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D235" t="s">
         <v>105</v>
       </c>
       <c r="E235" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>56</v>
@@ -5652,13 +5642,13 @@
         <v>45182</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D236" t="s">
         <v>5</v>
       </c>
       <c r="E236" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>56</v>
@@ -5672,13 +5662,13 @@
         <v>45182</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D237" t="s">
         <v>31</v>
       </c>
       <c r="E237" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>56</v>
@@ -5692,7 +5682,7 @@
         <v>45182</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D238" t="s">
         <v>18</v>
@@ -5712,7 +5702,7 @@
         <v>45181</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D239" t="s">
         <v>5</v>
@@ -5732,7 +5722,7 @@
         <v>45182</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D240" t="s">
         <v>5</v>
@@ -5752,7 +5742,7 @@
         <v>45182</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D241" s="7" t="s">
         <v>35</v>
@@ -5772,7 +5762,7 @@
         <v>45182</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D242" s="7" t="s">
         <v>35</v>
@@ -5792,7 +5782,7 @@
         <v>45181</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D243" t="s">
         <v>78</v>
@@ -5812,7 +5802,7 @@
         <v>45182</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D244" t="s">
         <v>77</v>
@@ -5826,13 +5816,13 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B245" s="1">
         <v>45181</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D245" t="s">
         <v>21</v>
@@ -5846,13 +5836,13 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B246" s="8">
         <v>45181</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D246" s="7" t="s">
         <v>66</v>
@@ -5866,13 +5856,13 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B247" s="1">
         <v>45182</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D247" s="7" t="s">
         <v>66</v>
@@ -5892,10 +5882,10 @@
         <v>45182</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D248" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E248" t="s">
         <v>38</v>
@@ -5912,7 +5902,7 @@
         <v>45181</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D249" t="s">
         <v>104</v>
@@ -5932,7 +5922,7 @@
         <v>45182</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D250" t="s">
         <v>104</v>
@@ -5952,7 +5942,7 @@
         <v>45182</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D251" t="s">
         <v>105</v>
@@ -5972,7 +5962,7 @@
         <v>45182</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D252" t="s">
         <v>27</v>
@@ -5992,7 +5982,7 @@
         <v>45181</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D253" t="s">
         <v>105</v>
@@ -6012,10 +6002,10 @@
         <v>45181</v>
       </c>
       <c r="C254" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D254" t="s">
         <v>131</v>
-      </c>
-      <c r="D254" t="s">
-        <v>133</v>
       </c>
       <c r="E254" t="s">
         <v>88</v>
@@ -6032,10 +6022,10 @@
         <v>45182</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D255" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E255" t="s">
         <v>88</v>
@@ -6052,7 +6042,7 @@
         <v>45182</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D256" t="s">
         <v>29</v>
@@ -6072,7 +6062,7 @@
         <v>45182</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D257" t="s">
         <v>5</v>
@@ -6092,7 +6082,7 @@
         <v>45181</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D258" t="s">
         <v>78</v>
@@ -6112,7 +6102,7 @@
         <v>45182</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D259" t="s">
         <v>18</v>
@@ -6132,7 +6122,7 @@
         <v>45182</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D260" t="s">
         <v>27</v>
@@ -6146,13 +6136,13 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B261" s="1">
         <v>45182</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D261" t="s">
         <v>21</v>
@@ -6172,10 +6162,10 @@
         <v>45181</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D262" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E262" t="s">
         <v>88</v>
@@ -6192,10 +6182,10 @@
         <v>45181</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D263" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E263" t="s">
         <v>88</v>
@@ -6212,7 +6202,7 @@
         <v>45181</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D264" t="s">
         <v>105</v>
@@ -6232,7 +6222,7 @@
         <v>45181</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D265" t="s">
         <v>31</v>
@@ -6246,13 +6236,13 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B266" s="1">
         <v>45181</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D266" t="s">
         <v>21</v>
@@ -6266,13 +6256,13 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B267" s="1">
         <v>45181</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D267" t="s">
         <v>67</v>
@@ -6286,13 +6276,13 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B268" s="8">
         <v>45181</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D268" s="7" t="s">
         <v>66</v>
@@ -6306,13 +6296,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B269" s="1">
         <v>45182</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D269" s="7" t="s">
         <v>66</v>
@@ -6328,11 +6318,11 @@
       <c r="A270" t="s">
         <v>117</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>119</v>
+      <c r="B270" s="1">
+        <v>45182</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D270" t="s">
         <v>118</v>
@@ -6352,7 +6342,7 @@
         <v>45182</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D271" t="s">
         <v>104</v>
@@ -6372,7 +6362,7 @@
         <v>45182</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D272" t="s">
         <v>105</v>
@@ -6386,13 +6376,13 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B273" s="1">
         <v>45182</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>24</v>
@@ -6412,7 +6402,7 @@
         <v>45182</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D274" t="s">
         <v>29</v>
@@ -6432,7 +6422,7 @@
         <v>45182</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D275" t="s">
         <v>32</v>
@@ -6452,7 +6442,7 @@
         <v>45181</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D276" t="s">
         <v>78</v>
@@ -6472,10 +6462,10 @@
         <v>45181</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D277" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E277" t="s">
         <v>89</v>
@@ -6492,7 +6482,7 @@
         <v>45181</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D278" t="s">
         <v>31</v>
@@ -6512,13 +6502,13 @@
         <v>45181</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D279" t="s">
         <v>5</v>
       </c>
       <c r="E279" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F279" s="5" t="s">
         <v>52</v>
@@ -6532,13 +6522,13 @@
         <v>45182</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D280" t="s">
         <v>18</v>
       </c>
       <c r="E280" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F280" s="5" t="s">
         <v>52</v>
@@ -6552,7 +6542,7 @@
         <v>45182</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D281" t="s">
         <v>32</v>
@@ -6566,22 +6556,22 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B282" s="1">
         <v>45181</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D282" t="s">
         <v>21</v>
       </c>
       <c r="E282" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
@@ -6592,7 +6582,7 @@
         <v>45182</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D283" t="s">
         <v>105</v>
@@ -6612,16 +6602,16 @@
         <v>45181</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D284" t="s">
+        <v>120</v>
+      </c>
+      <c r="E284" t="s">
         <v>121</v>
       </c>
-      <c r="E284" t="s">
+      <c r="F284" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="F284" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
@@ -6632,16 +6622,16 @@
         <v>45181</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D285" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E285" t="s">
+        <v>121</v>
+      </c>
+      <c r="F285" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="F285" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
@@ -6652,7 +6642,7 @@
         <v>45182</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D286" t="s">
         <v>5</v>
@@ -6672,10 +6662,10 @@
         <v>45182</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D287" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E287" t="s">
         <v>25</v>
@@ -6686,13 +6676,13 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B288" s="1">
         <v>45181</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>24</v>
@@ -6712,7 +6702,7 @@
         <v>45181</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D289" t="s">
         <v>32</v>
@@ -6732,10 +6722,10 @@
         <v>45181</v>
       </c>
       <c r="C290" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D290" t="s">
         <v>131</v>
-      </c>
-      <c r="D290" t="s">
-        <v>133</v>
       </c>
       <c r="E290" t="s">
         <v>6</v>
@@ -6752,7 +6742,7 @@
         <v>45181</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D291" t="s">
         <v>77</v>
@@ -6772,7 +6762,7 @@
         <v>45182</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D292" t="s">
         <v>18</v>
@@ -6786,13 +6776,13 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B293" s="1">
         <v>45182</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D293" t="s">
         <v>21</v>
@@ -6806,13 +6796,13 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B294" s="8">
         <v>45181</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D294" s="7" t="s">
         <v>66</v>
@@ -6826,13 +6816,13 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B295" s="1">
         <v>45182</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D295" s="7" t="s">
         <v>66</v>
@@ -6852,10 +6842,10 @@
         <v>45181</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D296" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E296" t="s">
         <v>6</v>
@@ -6872,10 +6862,10 @@
         <v>45181</v>
       </c>
       <c r="C297" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D297" t="s">
         <v>131</v>
-      </c>
-      <c r="D297" t="s">
-        <v>133</v>
       </c>
       <c r="E297" t="s">
         <v>6</v>
@@ -6892,7 +6882,7 @@
         <v>45182</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D298" t="s">
         <v>104</v>
@@ -6912,13 +6902,13 @@
         <v>45182</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D299" t="s">
         <v>104</v>
       </c>
       <c r="E299" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F299" s="5" t="s">
         <v>109</v>
@@ -6932,7 +6922,7 @@
         <v>45181</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D300" t="s">
         <v>31</v>
@@ -6946,13 +6936,13 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B301" s="1">
         <v>45182</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D301" t="s">
         <v>67</v>
@@ -6966,13 +6956,13 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B302" s="1">
         <v>45181</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D302" t="s">
         <v>21</v>
@@ -6992,7 +6982,7 @@
         <v>45181</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D303" t="s">
         <v>32</v>
@@ -7012,10 +7002,10 @@
         <v>45181</v>
       </c>
       <c r="C304" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D304" t="s">
         <v>131</v>
-      </c>
-      <c r="D304" t="s">
-        <v>133</v>
       </c>
       <c r="E304" t="s">
         <v>13</v>
@@ -7032,7 +7022,7 @@
         <v>45181</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D305" t="s">
         <v>5</v>
@@ -7052,10 +7042,10 @@
         <v>45182</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D306" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E306" t="s">
         <v>13</v>
@@ -7072,7 +7062,7 @@
         <v>45182</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D307" t="s">
         <v>5</v>
@@ -7092,7 +7082,7 @@
         <v>45182</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D308" t="s">
         <v>34</v>
@@ -7112,7 +7102,7 @@
         <v>45182</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D309" s="7" t="s">
         <v>35</v>
@@ -7132,7 +7122,7 @@
         <v>45182</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D310" s="7" t="s">
         <v>35</v>
@@ -7152,7 +7142,7 @@
         <v>45182</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D311" t="s">
         <v>18</v>
@@ -7166,13 +7156,13 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B312" s="1">
         <v>45182</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D312" s="7" t="s">
         <v>66</v>
@@ -7192,10 +7182,10 @@
         <v>45181</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D313" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E313" t="s">
         <v>13</v>
@@ -7212,7 +7202,7 @@
         <v>45181</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D314" t="s">
         <v>105</v>
@@ -7232,7 +7222,7 @@
         <v>45182</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D315" t="s">
         <v>105</v>
@@ -7252,7 +7242,7 @@
         <v>45181</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D316" t="s">
         <v>118</v>
@@ -7266,13 +7256,13 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B317" s="1">
         <v>45181</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>24</v>
@@ -7281,7 +7271,7 @@
         <v>13</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
@@ -7292,7 +7282,7 @@
         <v>45182</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D318" t="s">
         <v>32</v>
@@ -7306,13 +7296,13 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B319" s="8">
         <v>45181</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D319" s="7" t="s">
         <v>66</v>
@@ -7326,13 +7316,13 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B320" s="1">
         <v>45182</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D320" s="7" t="s">
         <v>66</v>
@@ -7352,7 +7342,7 @@
         <v>45181</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D321" t="s">
         <v>104</v>
@@ -7372,7 +7362,7 @@
         <v>45181</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D322" t="s">
         <v>5</v>
@@ -7392,10 +7382,10 @@
         <v>45182</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D323" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E323" t="s">
         <v>48</v>
@@ -7412,7 +7402,7 @@
         <v>45182</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D324" t="s">
         <v>5</v>
@@ -7432,7 +7422,7 @@
         <v>45181</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D325" t="s">
         <v>29</v>
@@ -7452,7 +7442,7 @@
         <v>45182</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D326" t="s">
         <v>29</v>
@@ -7472,7 +7462,7 @@
         <v>45182</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D327" t="s">
         <v>78</v>
@@ -7492,7 +7482,7 @@
         <v>45182</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D328" t="s">
         <v>18</v>
@@ -7506,13 +7496,13 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B329" s="1">
         <v>45181</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D329" t="s">
         <v>21</v>
@@ -7526,13 +7516,13 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B330" s="1">
         <v>45182</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D330" t="s">
         <v>67</v>
@@ -7552,7 +7542,7 @@
         <v>45181</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D331" t="s">
         <v>118</v>
@@ -7572,10 +7562,10 @@
         <v>45181</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D332" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E332" t="s">
         <v>48</v>
@@ -7592,10 +7582,10 @@
         <v>45181</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D333" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E333" t="s">
         <v>48</v>
@@ -7606,13 +7596,13 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B334" s="1">
         <v>45182</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>24</v>
@@ -7632,7 +7622,7 @@
         <v>45182</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D335" t="s">
         <v>29</v>
@@ -7652,7 +7642,7 @@
         <v>45182</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D336" t="s">
         <v>5</v>
@@ -7672,7 +7662,7 @@
         <v>45182</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D337" t="s">
         <v>31</v>
@@ -7692,7 +7682,7 @@
         <v>45182</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D338" t="s">
         <v>78</v>
@@ -7712,7 +7702,7 @@
         <v>45182</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D339" t="s">
         <v>27</v>
@@ -7728,14 +7718,14 @@
       <c r="A340" t="s">
         <v>117</v>
       </c>
-      <c r="B340" s="1" t="s">
-        <v>125</v>
+      <c r="B340" s="1">
+        <v>45182</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D340" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E340" t="s">
         <v>86</v>
@@ -7752,7 +7742,7 @@
         <v>45181</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D341" t="s">
         <v>105</v>
@@ -7772,7 +7762,7 @@
         <v>45182</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D342" t="s">
         <v>105</v>
@@ -7786,13 +7776,13 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B343" s="1">
         <v>45182</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D343" s="7" t="s">
         <v>66</v>
@@ -7812,10 +7802,10 @@
         <v>45181</v>
       </c>
       <c r="C344" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D344" t="s">
         <v>131</v>
-      </c>
-      <c r="D344" t="s">
-        <v>133</v>
       </c>
       <c r="E344" t="s">
         <v>46</v>
@@ -7832,10 +7822,10 @@
         <v>45182</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D345" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E345" t="s">
         <v>46</v>
@@ -7852,10 +7842,10 @@
         <v>45181</v>
       </c>
       <c r="C346" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D346" t="s">
         <v>131</v>
-      </c>
-      <c r="D346" t="s">
-        <v>133</v>
       </c>
       <c r="E346" t="s">
         <v>95</v>
@@ -7872,10 +7862,10 @@
         <v>45182</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D347" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E347" t="s">
         <v>95</v>
@@ -7892,7 +7882,7 @@
         <v>45181</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D348" t="s">
         <v>31</v>
@@ -7912,13 +7902,13 @@
         <v>45182</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D349" t="s">
         <v>18</v>
       </c>
       <c r="E349" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F349" s="5" t="s">
         <v>50</v>
@@ -7926,13 +7916,13 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B350" s="1">
         <v>45182</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D350" t="s">
         <v>67</v>
@@ -7946,13 +7936,13 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B351" s="8">
         <v>45181</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D351" s="7" t="s">
         <v>66</v>
@@ -7966,13 +7956,13 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B352" s="1">
         <v>45182</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D352" s="7" t="s">
         <v>66</v>
@@ -7992,10 +7982,10 @@
         <v>45181</v>
       </c>
       <c r="C353" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D353" t="s">
         <v>131</v>
-      </c>
-      <c r="D353" t="s">
-        <v>133</v>
       </c>
       <c r="E353" t="s">
         <v>91</v>
@@ -8012,7 +8002,7 @@
         <v>45182</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D354" t="s">
         <v>18</v>
@@ -8032,7 +8022,7 @@
         <v>45182</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D355" s="7" t="s">
         <v>35</v>
@@ -8052,7 +8042,7 @@
         <v>45182</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D356" s="7" t="s">
         <v>35</v>
@@ -8066,22 +8056,22 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B357" s="1">
         <v>45181</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D357" t="s">
         <v>21</v>
       </c>
       <c r="E357" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.35">
@@ -8092,7 +8082,7 @@
         <v>45182</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D358" t="s">
         <v>18</v>
@@ -8112,7 +8102,7 @@
         <v>45181</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D359" t="s">
         <v>104</v>
@@ -8132,7 +8122,7 @@
         <v>45181</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D360" t="s">
         <v>105</v>
@@ -8152,7 +8142,7 @@
         <v>45182</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D361" t="s">
         <v>104</v>
@@ -8172,7 +8162,7 @@
         <v>45181</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D362" t="s">
         <v>32</v>
@@ -8192,7 +8182,7 @@
         <v>45182</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D363" t="s">
         <v>5</v>
@@ -8212,7 +8202,7 @@
         <v>45181</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D364" t="s">
         <v>77</v>
@@ -8232,7 +8222,7 @@
         <v>45182</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D365" t="s">
         <v>78</v>
@@ -8246,13 +8236,13 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B366" s="1">
         <v>45181</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D366" t="s">
         <v>21</v>
@@ -8266,13 +8256,13 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B367" s="1">
         <v>45181</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D367" t="s">
         <v>67</v>
@@ -8292,10 +8282,10 @@
         <v>45181</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D368" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E368" t="s">
         <v>95</v>
@@ -8312,10 +8302,10 @@
         <v>45181</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D369" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E369" t="s">
         <v>95</v>
@@ -8332,7 +8322,7 @@
         <v>45182</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D370" t="s">
         <v>18</v>
@@ -8352,7 +8342,7 @@
         <v>45181</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D371" t="s">
         <v>118</v>
@@ -8366,13 +8356,13 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B372" s="8">
         <v>45181</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D372" s="7" t="s">
         <v>66</v>
@@ -8386,13 +8376,13 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B373" s="1">
         <v>45182</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D373" s="7" t="s">
         <v>66</v>
@@ -8412,7 +8402,7 @@
         <v>45181</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D374" t="s">
         <v>29</v>
@@ -8426,13 +8416,13 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B375" s="1">
         <v>45182</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>24</v>
@@ -8446,13 +8436,13 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B376" s="1">
         <v>45181</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D376" t="s">
         <v>21</v>
@@ -8472,7 +8462,7 @@
         <v>45181</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D377" t="s">
         <v>32</v>
@@ -8492,7 +8482,7 @@
         <v>45182</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D378" t="s">
         <v>32</v>
@@ -8512,7 +8502,7 @@
         <v>45181</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D379" t="s">
         <v>29</v>
@@ -8532,7 +8522,7 @@
         <v>45181</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D380" t="s">
         <v>5</v>
@@ -8552,10 +8542,10 @@
         <v>45182</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D381" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E381" t="s">
         <v>91</v>
@@ -8572,7 +8562,7 @@
         <v>45182</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D382" t="s">
         <v>34</v>
@@ -8592,7 +8582,7 @@
         <v>45182</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D383" t="s">
         <v>34</v>
@@ -8612,7 +8602,7 @@
         <v>45181</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D384" t="s">
         <v>77</v>
@@ -8632,7 +8622,7 @@
         <v>45181</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D385" t="s">
         <v>78</v>
@@ -8646,13 +8636,13 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B386" s="1">
         <v>45181</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D386" t="s">
         <v>67</v>
@@ -8672,10 +8662,10 @@
         <v>45181</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D387" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E387" t="s">
         <v>91</v>
@@ -8692,10 +8682,10 @@
         <v>45181</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D388" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E388" t="s">
         <v>91</v>
@@ -8712,7 +8702,7 @@
         <v>45181</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D389" t="s">
         <v>104</v>
@@ -8732,7 +8722,7 @@
         <v>45181</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D390" t="s">
         <v>105</v>
@@ -8752,7 +8742,7 @@
         <v>45182</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D391" t="s">
         <v>104</v>
@@ -8772,7 +8762,7 @@
         <v>45182</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D392" t="s">
         <v>105</v>
@@ -8786,13 +8776,13 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B393" s="1">
         <v>45181</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>24</v>
@@ -8806,13 +8796,13 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B394" s="1">
         <v>45182</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>24</v>
@@ -8832,7 +8822,7 @@
         <v>45182</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D395" t="s">
         <v>104</v>
@@ -8852,7 +8842,7 @@
         <v>45181</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D396" t="s">
         <v>32</v>
@@ -8872,7 +8862,7 @@
         <v>45181</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D397" t="s">
         <v>31</v>
@@ -8892,7 +8882,7 @@
         <v>45182</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D398" t="s">
         <v>78</v>
@@ -8906,13 +8896,13 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B399" s="1">
         <v>45182</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D399" s="7" t="s">
         <v>66</v>
@@ -8921,7 +8911,7 @@
         <v>75</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.35">
@@ -8932,13 +8922,13 @@
         <v>45182</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
       </c>
       <c r="E400" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F400" s="5" t="s">
         <v>64</v>
@@ -8952,7 +8942,7 @@
         <v>45182</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D401" t="s">
         <v>18</v>
@@ -8972,7 +8962,7 @@
         <v>45181</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D402" t="s">
         <v>31</v>
@@ -8993,13 +8983,13 @@
         <v>45182</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D403" t="s">
         <v>18</v>
       </c>
       <c r="E403" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F403" s="5" t="s">
         <v>8</v>
@@ -9014,13 +9004,13 @@
         <v>45181</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D404" t="s">
         <v>32</v>
       </c>
       <c r="E404" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F404" s="5" t="s">
         <v>8</v>
@@ -9035,13 +9025,13 @@
         <v>45182</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D405" t="s">
         <v>32</v>
       </c>
       <c r="E405" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F405" s="5" t="s">
         <v>8</v>
@@ -9056,13 +9046,13 @@
         <v>45181</v>
       </c>
       <c r="C406" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D406" t="s">
         <v>131</v>
       </c>
-      <c r="D406" t="s">
-        <v>133</v>
-      </c>
       <c r="E406" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F406" s="5" t="s">
         <v>8</v>
@@ -9077,13 +9067,13 @@
         <v>45181</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D407" t="s">
         <v>5</v>
       </c>
       <c r="E407" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F407" s="5" t="s">
         <v>8</v>
@@ -9098,13 +9088,13 @@
         <v>45182</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D408" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E408" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F408" s="5" t="s">
         <v>8</v>
@@ -9119,13 +9109,13 @@
         <v>45182</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D409" t="s">
         <v>5</v>
       </c>
       <c r="E409" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F409" s="5" t="s">
         <v>8</v>
@@ -9140,13 +9130,13 @@
         <v>45181</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D410" t="s">
         <v>34</v>
       </c>
       <c r="E410" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F410" s="5" t="s">
         <v>8</v>
@@ -9161,13 +9151,13 @@
         <v>45181</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D411" t="s">
         <v>31</v>
       </c>
       <c r="E411" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F411" s="5" t="s">
         <v>8</v>
@@ -9182,13 +9172,13 @@
         <v>45182</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D412" t="s">
         <v>77</v>
       </c>
       <c r="E412" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F412" s="5" t="s">
         <v>8</v>
@@ -9197,19 +9187,19 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B413" s="1">
         <v>45181</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D413" t="s">
         <v>67</v>
       </c>
       <c r="E413" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F413" s="5" t="s">
         <v>8</v>
@@ -9218,19 +9208,19 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B414" s="1">
         <v>45182</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D414" s="7" t="s">
         <v>66</v>
       </c>
       <c r="E414" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F414" s="5" t="s">
         <v>8</v>
@@ -9245,13 +9235,13 @@
         <v>45182</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D415" t="s">
         <v>105</v>
       </c>
       <c r="E415" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F415" s="5" t="s">
         <v>8</v>
@@ -9260,19 +9250,19 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B416" s="1">
         <v>45181</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D416" t="s">
         <v>21</v>
       </c>
       <c r="E416" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F416" s="5" t="s">
         <v>8</v>
@@ -9287,13 +9277,13 @@
         <v>45181</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D417" t="s">
         <v>105</v>
       </c>
       <c r="E417" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F417" s="5" t="s">
         <v>8</v>
@@ -9308,13 +9298,13 @@
         <v>45181</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D418" t="s">
         <v>78</v>
       </c>
       <c r="E418" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F418" s="5" t="s">
         <v>8</v>
@@ -9323,19 +9313,19 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B419" s="1">
         <v>45182</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D419" t="s">
         <v>21</v>
       </c>
       <c r="E419" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F419" s="5" t="s">
         <v>8</v>
@@ -9350,13 +9340,13 @@
         <v>45181</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D420" t="s">
         <v>118</v>
       </c>
       <c r="E420" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F420" s="5" t="s">
         <v>8</v>
@@ -9371,13 +9361,13 @@
         <v>45181</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D421" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E421" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F421" s="5" t="s">
         <v>8</v>
@@ -9386,22 +9376,22 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B422" s="1">
         <v>45181</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E422" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F422" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G422" s="5"/>
     </row>
@@ -9437,10 +9427,10 @@
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>30</v>
@@ -9449,7 +9439,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -9564,7 +9554,7 @@
         <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="6">
         <v>45181.782638888886</v>
@@ -9578,7 +9568,7 @@
         <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11" s="6">
         <v>45181.782638888886</v>
@@ -9589,19 +9579,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" t="s">
         <v>137</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -9609,7 +9599,7 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="6">
         <v>45181.782638888886</v>
@@ -9620,36 +9610,36 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" t="s">
         <v>137</v>
-      </c>
-      <c r="B14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" t="s">
         <v>137</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -9710,7 +9700,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -9724,19 +9714,19 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" t="s">
         <v>137</v>
-      </c>
-      <c r="B21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
